--- a/참고자료/2019-10-31 1Day Project/BookRent_테이블명세(2019-10-31).xlsx
+++ b/참고자료/2019-10-31 1Day Project/BookRent_테이블명세(2019-10-31).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\개발자 문서\900. 프로젝트 미션\도서대여점 관리 1Day\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\java-dbms\참고자료\2019-10-31 1Day Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3276,8 +3276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3288,7 +3288,7 @@
     <col min="4" max="4" width="16.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.21875" style="1" bestFit="1" customWidth="1"/>
